--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
@@ -1051,7 +1051,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
@@ -1147,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1e-6</v>
+        <v>4.87161297425765</v>
       </c>
       <c r="C2">
         <v>1e-6</v>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>2022</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Output per Capita</t>
+  </si>
+  <si>
+    <t>Education Cost (%GDP)</t>
+  </si>
+  <si>
+    <t>Healthcare Cost (%GDP)</t>
+  </si>
+  <si>
+    <t>Infrastructure Investment (%GDP)</t>
+  </si>
+  <si>
+    <t>Reinvestment (%GDP)</t>
   </si>
 </sst>
 </file>
@@ -1045,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
@@ -1147,91 +1159,405 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>4.87161297425765</v>
+        <v>4.87161297425764</v>
       </c>
       <c r="C2">
-        <v>1e-6</v>
+        <v>4.84802685386431</v>
       </c>
       <c r="D2">
-        <v>1e-6</v>
+        <v>4.8166776801437</v>
       </c>
       <c r="E2">
-        <v>1e-6</v>
+        <v>4.77612623694607</v>
       </c>
       <c r="F2">
-        <v>1e-6</v>
+        <v>4.73146342589992</v>
       </c>
       <c r="G2">
-        <v>1e-6</v>
+        <v>4.64801859576522</v>
       </c>
       <c r="H2">
-        <v>1e-6</v>
+        <v>4.56133679684499</v>
       </c>
       <c r="I2">
-        <v>1e-6</v>
+        <v>4.47275457175577</v>
       </c>
       <c r="J2">
-        <v>1e-6</v>
+        <v>4.3839986224852</v>
       </c>
       <c r="K2">
-        <v>1e-6</v>
+        <v>4.2996133347857</v>
       </c>
       <c r="L2">
-        <v>1e-6</v>
+        <v>4.21665059439685</v>
       </c>
       <c r="M2">
-        <v>1e-6</v>
+        <v>4.1334575501158</v>
       </c>
       <c r="N2">
-        <v>1e-6</v>
+        <v>4.05088171609849</v>
       </c>
       <c r="O2">
-        <v>1e-6</v>
+        <v>3.971503937343</v>
       </c>
       <c r="P2">
-        <v>1e-6</v>
+        <v>4.04343857409873</v>
       </c>
       <c r="Q2">
-        <v>1e-6</v>
+        <v>4.03732907851332</v>
       </c>
       <c r="R2">
-        <v>1e-6</v>
+        <v>3.97131126076895</v>
       </c>
       <c r="S2">
-        <v>1e-6</v>
+        <v>3.92798487130393</v>
       </c>
       <c r="T2">
-        <v>1e-6</v>
+        <v>3.86520477232934</v>
       </c>
       <c r="U2">
-        <v>1e-6</v>
+        <v>3.81851897805827</v>
       </c>
       <c r="V2">
-        <v>1e-6</v>
+        <v>3.74743830870591</v>
       </c>
       <c r="W2">
-        <v>1e-6</v>
+        <v>3.67882983984387</v>
       </c>
       <c r="X2">
-        <v>1e-6</v>
+        <v>3.63438719770882</v>
       </c>
       <c r="Y2">
-        <v>1e-6</v>
+        <v>3.56474952669185</v>
       </c>
       <c r="Z2">
-        <v>1e-6</v>
+        <v>3.49483157874768</v>
       </c>
       <c r="AA2">
-        <v>1e-6</v>
+        <v>3.42673814500145</v>
       </c>
       <c r="AB2">
-        <v>1e-6</v>
+        <v>3.39738112578505</v>
       </c>
       <c r="AC2">
-        <v>1e-6</v>
+        <v>3.33500375374842</v>
       </c>
       <c r="AD2">
-        <v>1e-6</v>
+        <v>3.27329391068869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.0189617558665476</v>
+      </c>
+      <c r="C3">
+        <v>0.0177902064190956</v>
+      </c>
+      <c r="D3">
+        <v>0.0167830195234511</v>
+      </c>
+      <c r="E3">
+        <v>0.015872836536675</v>
+      </c>
+      <c r="F3">
+        <v>0.0150318033926546</v>
+      </c>
+      <c r="G3">
+        <v>0.0150369984839259</v>
+      </c>
+      <c r="H3">
+        <v>0.015101350375476</v>
+      </c>
+      <c r="I3">
+        <v>0.0151123594381412</v>
+      </c>
+      <c r="J3">
+        <v>0.015192786964971</v>
+      </c>
+      <c r="K3">
+        <v>0.0152570064127073</v>
+      </c>
+      <c r="L3">
+        <v>0.0153707650129577</v>
+      </c>
+      <c r="M3">
+        <v>0.0155800452000004</v>
+      </c>
+      <c r="N3">
+        <v>0.0158275300444287</v>
+      </c>
+      <c r="O3">
+        <v>0.0161101275570302</v>
+      </c>
+      <c r="P3">
+        <v>0.0158127184239433</v>
+      </c>
+      <c r="Q3">
+        <v>0.0158287660115228</v>
+      </c>
+      <c r="R3">
+        <v>0.0160889760022968</v>
+      </c>
+      <c r="S3">
+        <v>0.0162718954880892</v>
+      </c>
+      <c r="T3">
+        <v>0.0165521074591424</v>
+      </c>
+      <c r="U3">
+        <v>0.0168424913206976</v>
+      </c>
+      <c r="V3">
+        <v>0.0172020573600097</v>
+      </c>
+      <c r="W3">
+        <v>0.0175114793230743</v>
+      </c>
+      <c r="X3">
+        <v>0.0176934126422211</v>
+      </c>
+      <c r="Y3">
+        <v>0.0180421950358619</v>
+      </c>
+      <c r="Z3">
+        <v>0.0183375114320541</v>
+      </c>
+      <c r="AA3">
+        <v>0.0185304714816922</v>
+      </c>
+      <c r="AB3">
+        <v>0.0184317791343575</v>
+      </c>
+      <c r="AC3">
+        <v>0.0184438436126483</v>
+      </c>
+      <c r="AD3">
+        <v>0.0183971529375592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.0152547016486263</v>
+      </c>
+      <c r="D4">
+        <v>0.0146297478383039</v>
+      </c>
+      <c r="E4">
+        <v>0.0144230764615648</v>
+      </c>
+      <c r="F4">
+        <v>0.014259149124476</v>
+      </c>
+      <c r="G4">
+        <v>0.0144593856823192</v>
+      </c>
+      <c r="H4">
+        <v>0.0147020255101967</v>
+      </c>
+      <c r="I4">
+        <v>0.0149775674058206</v>
+      </c>
+      <c r="J4">
+        <v>0.0152713648419669</v>
+      </c>
+      <c r="K4">
+        <v>0.0155389084322633</v>
+      </c>
+      <c r="L4">
+        <v>0.0158137372566904</v>
+      </c>
+      <c r="M4">
+        <v>0.0161150823075959</v>
+      </c>
+      <c r="N4">
+        <v>0.0164333591709379</v>
+      </c>
+      <c r="O4">
+        <v>0.0167529110564366</v>
+      </c>
+      <c r="P4">
+        <v>0.0164410593847658</v>
+      </c>
+      <c r="Q4">
+        <v>0.0164501822204273</v>
+      </c>
+      <c r="R4">
+        <v>0.0167058376102606</v>
+      </c>
+      <c r="S4">
+        <v>0.0168712749105834</v>
+      </c>
+      <c r="T4">
+        <v>0.0171257500343471</v>
+      </c>
+      <c r="U4">
+        <v>0.017325283892178</v>
+      </c>
+      <c r="V4">
+        <v>0.0176310170304514</v>
+      </c>
+      <c r="W4">
+        <v>0.0179227211223843</v>
+      </c>
+      <c r="X4">
+        <v>0.0181069993126021</v>
+      </c>
+      <c r="Y4">
+        <v>0.0184380642220201</v>
+      </c>
+      <c r="Z4">
+        <v>0.0187643809482546</v>
+      </c>
+      <c r="AA4">
+        <v>0.0190658269806423</v>
+      </c>
+      <c r="AB4">
+        <v>0.0191364207585739</v>
+      </c>
+      <c r="AC4">
+        <v>0.0193806854784594</v>
+      </c>
+      <c r="AD4">
+        <v>0.0196170082551715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>0.834752145560285</v>
+      </c>
+      <c r="P5">
+        <v>0.842776687578206</v>
+      </c>
+      <c r="R5">
+        <v>0.771256808311876</v>
+      </c>
+      <c r="T5">
+        <v>0.91666246158243</v>
+      </c>
+      <c r="U5">
+        <v>0.713296208766686</v>
+      </c>
+      <c r="V5">
+        <v>0.817119797664799</v>
+      </c>
+      <c r="X5">
+        <v>0.821686463339073</v>
+      </c>
+      <c r="Y5">
+        <v>0.837438836692497</v>
+      </c>
+      <c r="Z5">
+        <v>0.865027654798329</v>
+      </c>
+      <c r="AB5">
+        <v>0.84407775257674</v>
+      </c>
+      <c r="AC5">
+        <v>0.857313187405282</v>
+      </c>
+      <c r="AD5">
+        <v>0.34549081912521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.123216457977028</v>
+      </c>
+      <c r="C6">
+        <v>0.10679020687724</v>
+      </c>
+      <c r="D6">
+        <v>0.120412767816642</v>
+      </c>
+      <c r="E6">
+        <v>0.119295913450432</v>
+      </c>
+      <c r="F6">
+        <v>0.118290952966872</v>
+      </c>
+      <c r="G6">
+        <v>0.118496384617152</v>
+      </c>
+      <c r="H6">
+        <v>0.118803376338161</v>
+      </c>
+      <c r="I6">
+        <v>0.119089927298339</v>
+      </c>
+      <c r="J6">
+        <v>0.119464152263366</v>
+      </c>
+      <c r="K6">
+        <v>0.119795915303284</v>
+      </c>
+      <c r="L6">
+        <v>0.120184502729984</v>
+      </c>
+      <c r="M6">
+        <v>0.120695127970274</v>
+      </c>
+      <c r="N6">
+        <v>0.121260889680635</v>
+      </c>
+      <c r="O6">
+        <v>0.956615184173751</v>
+      </c>
+      <c r="P6">
+        <v>0.964030465386915</v>
+      </c>
+      <c r="Q6">
+        <v>0.121278948679807</v>
+      </c>
+      <c r="R6">
+        <v>0.893051621924434</v>
+      </c>
+      <c r="S6">
+        <v>0.122143170847555</v>
+      </c>
+      <c r="T6">
+        <v>1.03934031907592</v>
+      </c>
+      <c r="U6">
+        <v>0.836463983979561</v>
+      </c>
+      <c r="V6">
+        <v>0.940952872055261</v>
+      </c>
+      <c r="W6">
+        <v>0.124434200904525</v>
+      </c>
+      <c r="X6">
+        <v>0.946486875293896</v>
+      </c>
+      <c r="Y6">
+        <v>0.962919095950379</v>
+      </c>
+      <c r="Z6">
+        <v>0.991129547178638</v>
+      </c>
+      <c r="AA6">
+        <v>0.126596298939521</v>
+      </c>
+      <c r="AB6">
+        <v>0.970645952469671</v>
+      </c>
+      <c r="AC6">
+        <v>0.984137716496389</v>
+      </c>
+      <c r="AD6">
+        <v>0.472504980317946</v>
       </c>
     </row>
   </sheetData>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_arg.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>4.87161297425764</v>
+        <v>10.40322703638</v>
       </c>
       <c r="C2">
-        <v>4.84802685386431</v>
+        <v>10.2910019708999</v>
       </c>
       <c r="D2">
-        <v>4.8166776801437</v>
+        <v>10.1624462860823</v>
       </c>
       <c r="E2">
-        <v>4.77612623694607</v>
+        <v>10.0194590219897</v>
       </c>
       <c r="F2">
-        <v>4.73146342589992</v>
+        <v>9.86895308269744</v>
       </c>
       <c r="G2">
-        <v>4.64801859576522</v>
+        <v>9.63230275134947</v>
       </c>
       <c r="H2">
-        <v>4.56133679684499</v>
+        <v>9.41012920275322</v>
       </c>
       <c r="I2">
-        <v>4.47275457175577</v>
+        <v>9.17034642654648</v>
       </c>
       <c r="J2">
-        <v>4.3839986224852</v>
+        <v>8.95268071158981</v>
       </c>
       <c r="K2">
-        <v>4.2996133347857</v>
+        <v>8.74926840330437</v>
       </c>
       <c r="L2">
-        <v>4.21665059439685</v>
+        <v>8.55368406579018</v>
       </c>
       <c r="M2">
-        <v>4.1334575501158</v>
+        <v>8.35893205552034</v>
       </c>
       <c r="N2">
-        <v>4.05088171609849</v>
+        <v>8.16902649579488</v>
       </c>
       <c r="O2">
-        <v>3.971503937343</v>
+        <v>8.17650644420602</v>
       </c>
       <c r="P2">
-        <v>4.04343857409873</v>
+        <v>8.13219463733911</v>
       </c>
       <c r="Q2">
-        <v>4.03732907851332</v>
+        <v>8.1649394923883</v>
       </c>
       <c r="R2">
-        <v>3.97131126076895</v>
+        <v>8.12218143259057</v>
       </c>
       <c r="S2">
-        <v>3.92798487130393</v>
+        <v>8.03498951277469</v>
       </c>
       <c r="T2">
-        <v>3.86520477232934</v>
+        <v>7.92173858745452</v>
       </c>
       <c r="U2">
-        <v>3.81851897805827</v>
+        <v>7.79546034009721</v>
       </c>
       <c r="V2">
-        <v>3.74743830870591</v>
+        <v>7.66482063650253</v>
       </c>
       <c r="W2">
-        <v>3.67882983984387</v>
+        <v>7.52993990872994</v>
       </c>
       <c r="X2">
-        <v>3.63438719770882</v>
+        <v>7.39358135112914</v>
       </c>
       <c r="Y2">
-        <v>3.56474952669185</v>
+        <v>7.25357635486553</v>
       </c>
       <c r="Z2">
-        <v>3.49483157874768</v>
+        <v>7.11745958406536</v>
       </c>
       <c r="AA2">
-        <v>3.42673814500145</v>
+        <v>6.98746985331184</v>
       </c>
       <c r="AB2">
-        <v>3.39738112578505</v>
+        <v>6.86279573200134</v>
       </c>
       <c r="AC2">
-        <v>3.33500375374842</v>
+        <v>6.74279737041585</v>
       </c>
       <c r="AD2">
-        <v>3.27329391068869</v>
+        <v>5.64820766212314</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.0189617558665476</v>
+        <v>0.0100220991049612</v>
       </c>
       <c r="C3">
-        <v>0.0177902064190956</v>
+        <v>0.00945940419380206</v>
       </c>
       <c r="D3">
-        <v>0.0167830195234511</v>
+        <v>0.00897831549712303</v>
       </c>
       <c r="E3">
-        <v>0.015872836536675</v>
+        <v>0.00854007151957382</v>
       </c>
       <c r="F3">
-        <v>0.0150318033926546</v>
+        <v>0.00813412665010313</v>
       </c>
       <c r="G3">
-        <v>0.0150369984839259</v>
+        <v>0.00818981947396584</v>
       </c>
       <c r="H3">
-        <v>0.015101350375476</v>
+        <v>0.00826204923162958</v>
       </c>
       <c r="I3">
-        <v>0.0151123594381412</v>
+        <v>0.00831949645182372</v>
       </c>
       <c r="J3">
-        <v>0.015192786964971</v>
+        <v>0.462133110514269</v>
       </c>
       <c r="K3">
-        <v>0.0152570064127073</v>
+        <v>0.00846257304943108</v>
       </c>
       <c r="L3">
-        <v>0.0153707650129577</v>
+        <v>0.00855234739594284</v>
       </c>
       <c r="M3">
-        <v>0.0155800452000004</v>
+        <v>0.00869574589383441</v>
       </c>
       <c r="N3">
-        <v>0.0158275300444287</v>
+        <v>0.00885865614227619</v>
       </c>
       <c r="O3">
-        <v>0.0161101275570302</v>
+        <v>0.00883205232856499</v>
       </c>
       <c r="P3">
-        <v>0.0158127184239433</v>
+        <v>0.00887411522034493</v>
       </c>
       <c r="Q3">
-        <v>0.0158287660115228</v>
+        <v>0.00883412781764924</v>
       </c>
       <c r="R3">
-        <v>0.0160889760022968</v>
+        <v>0.00887902103775836</v>
       </c>
       <c r="S3">
-        <v>0.0162718954880892</v>
+        <v>0.00897838198888055</v>
       </c>
       <c r="T3">
-        <v>0.0165521074591424</v>
+        <v>0.00911550508696768</v>
       </c>
       <c r="U3">
-        <v>0.0168424913206976</v>
+        <v>0.00931182830248525</v>
       </c>
       <c r="V3">
-        <v>0.0172020573600097</v>
+        <v>0.00949266877668786</v>
       </c>
       <c r="W3">
-        <v>0.0175114793230743</v>
+        <v>0.00965642709804492</v>
       </c>
       <c r="X3">
-        <v>0.0176934126422211</v>
+        <v>0.00981665175581666</v>
       </c>
       <c r="Y3">
-        <v>0.0180421950358619</v>
+        <v>0.0100078697983156</v>
       </c>
       <c r="Z3">
-        <v>0.0183375114320541</v>
+        <v>0.0101628865967913</v>
       </c>
       <c r="AA3">
-        <v>0.0185304714816922</v>
+        <v>0.0102570596606788</v>
       </c>
       <c r="AB3">
-        <v>0.0184317791343575</v>
+        <v>0.0102987827103551</v>
       </c>
       <c r="AC3">
-        <v>0.0184438436126483</v>
+        <v>0.0102963450882438</v>
       </c>
       <c r="AD3">
-        <v>0.0183971529375592</v>
+        <v>0.000797274372686215</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1343,129 +1343,183 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0152547016486263</v>
+        <v>0.00806276237365061</v>
+      </c>
+      <c r="C4">
+        <v>0.00792416153177153</v>
       </c>
       <c r="D4">
-        <v>0.0146297478383039</v>
+        <v>0.00782639211925531</v>
       </c>
       <c r="E4">
-        <v>0.0144230764615648</v>
+        <v>0.00776005625897079</v>
       </c>
       <c r="F4">
-        <v>0.014259149124476</v>
+        <v>0.00771602194836261</v>
       </c>
       <c r="G4">
-        <v>0.0144593856823192</v>
+        <v>0.00787522580182662</v>
       </c>
       <c r="H4">
-        <v>0.0147020255101967</v>
+        <v>0.0080435759418694</v>
       </c>
       <c r="I4">
-        <v>0.0149775674058206</v>
+        <v>0.00824529216630391</v>
       </c>
       <c r="J4">
-        <v>0.0152713648419669</v>
+        <v>0.00844054726385594</v>
       </c>
       <c r="K4">
-        <v>0.0155389084322633</v>
+        <v>0.00861893507542379</v>
       </c>
       <c r="L4">
-        <v>0.0158137372566904</v>
+        <v>0.00879881870117509</v>
       </c>
       <c r="M4">
-        <v>0.0161150823075959</v>
+        <v>0.00899436805260858</v>
       </c>
       <c r="N4">
-        <v>0.0164333591709379</v>
+        <v>0.00919773822884657</v>
       </c>
       <c r="O4">
-        <v>0.0167529110564366</v>
+        <v>0.00918444541065566</v>
       </c>
       <c r="P4">
-        <v>0.0164410593847658</v>
+        <v>0.00922674086854201</v>
       </c>
       <c r="Q4">
-        <v>0.0164501822204273</v>
+        <v>0.00918094387478375</v>
       </c>
       <c r="R4">
-        <v>0.0167058376102606</v>
+        <v>0.00921944837096556</v>
       </c>
       <c r="S4">
-        <v>0.0168712749105834</v>
+        <v>0.00930910298050486</v>
       </c>
       <c r="T4">
-        <v>0.0171257500343471</v>
+        <v>0.00943141904688409</v>
       </c>
       <c r="U4">
-        <v>0.017325283892178</v>
+        <v>0.00957875327490996</v>
       </c>
       <c r="V4">
-        <v>0.0176310170304514</v>
+        <v>0.0097293830245735</v>
       </c>
       <c r="W4">
-        <v>0.0179227211223843</v>
+        <v>0.00988319985558535</v>
       </c>
       <c r="X4">
-        <v>0.0181069993126021</v>
+        <v>0.010046117738218</v>
       </c>
       <c r="Y4">
-        <v>0.0184380642220201</v>
+        <v>0.0102274554565109</v>
       </c>
       <c r="Z4">
-        <v>0.0187643809482546</v>
+        <v>0.0103994632173893</v>
       </c>
       <c r="AA4">
-        <v>0.0190658269806423</v>
+        <v>0.0105533917479562</v>
       </c>
       <c r="AB4">
-        <v>0.0191364207585739</v>
+        <v>0.0106925022164091</v>
       </c>
       <c r="AC4">
-        <v>0.0193806854784594</v>
+        <v>0.0108193405845237</v>
       </c>
       <c r="AD4">
-        <v>0.0196170082551715</v>
+        <v>0.0128316516839504</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B5">
+        <v>0.00820512018621946</v>
+      </c>
+      <c r="C5">
+        <v>0.00973500988119013</v>
+      </c>
+      <c r="D5">
+        <v>0.0112275133522302</v>
+      </c>
+      <c r="E5">
+        <v>0.011819118780831</v>
+      </c>
+      <c r="F5">
+        <v>0.0124628156208721</v>
+      </c>
+      <c r="G5">
+        <v>0.0261769505693112</v>
+      </c>
+      <c r="H5">
+        <v>0.0130332404912168</v>
+      </c>
+      <c r="I5">
+        <v>0.0284974795784936</v>
+      </c>
+      <c r="J5">
+        <v>0.0301392487672249</v>
+      </c>
+      <c r="K5">
+        <v>0.0338921556202085</v>
+      </c>
+      <c r="L5">
+        <v>0.034943321538485</v>
+      </c>
+      <c r="M5">
+        <v>0.0361634704097395</v>
+      </c>
+      <c r="N5">
+        <v>0.348755294238691</v>
+      </c>
       <c r="O5">
-        <v>0.834752145560285</v>
+        <v>0.392328059972498</v>
       </c>
       <c r="P5">
-        <v>0.842776687578206</v>
+        <v>0.864575529983917</v>
+      </c>
+      <c r="Q5">
+        <v>0.888456731796238</v>
       </c>
       <c r="R5">
-        <v>0.771256808311876</v>
+        <v>0.87901003544625</v>
+      </c>
+      <c r="S5">
+        <v>0.862881401801058</v>
       </c>
       <c r="T5">
-        <v>0.91666246158243</v>
+        <v>0.888894437557198</v>
       </c>
       <c r="U5">
-        <v>0.713296208766686</v>
+        <v>0.898449108388879</v>
       </c>
       <c r="V5">
-        <v>0.817119797664799</v>
+        <v>0.866997348844471</v>
+      </c>
+      <c r="W5">
+        <v>0.888349237507905</v>
       </c>
       <c r="X5">
-        <v>0.821686463339073</v>
+        <v>0.888154097056282</v>
       </c>
       <c r="Y5">
-        <v>0.837438836692497</v>
+        <v>0.887899925040501</v>
       </c>
       <c r="Z5">
-        <v>0.865027654798329</v>
+        <v>0.887685511996051</v>
+      </c>
+      <c r="AA5">
+        <v>0.887545505142858</v>
       </c>
       <c r="AB5">
-        <v>0.84407775257674</v>
+        <v>0.887468265128861</v>
       </c>
       <c r="AC5">
-        <v>0.857313187405282</v>
+        <v>0.887443046848033</v>
       </c>
       <c r="AD5">
-        <v>0.34549081912521</v>
+        <v>0.582991547476809</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1473,91 +1527,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.123216457977028</v>
+        <v>0.115289981664831</v>
       </c>
       <c r="C6">
-        <v>0.10679020687724</v>
+        <v>0.116118575606764</v>
       </c>
       <c r="D6">
-        <v>0.120412767816642</v>
+        <v>0.117032220968609</v>
       </c>
       <c r="E6">
-        <v>0.119295913450432</v>
+        <v>0.117119246559376</v>
       </c>
       <c r="F6">
-        <v>0.118290952966872</v>
+        <v>0.117312964219338</v>
       </c>
       <c r="G6">
-        <v>0.118496384617152</v>
+        <v>0.131241995845104</v>
       </c>
       <c r="H6">
-        <v>0.118803376338161</v>
+        <v>0.118338865664716</v>
       </c>
       <c r="I6">
-        <v>0.119089927298339</v>
+        <v>0.134062268196621</v>
       </c>
       <c r="J6">
-        <v>0.119464152263366</v>
+        <v>0.58971290654535</v>
       </c>
       <c r="K6">
-        <v>0.119795915303284</v>
+        <v>0.139973663745063</v>
       </c>
       <c r="L6">
-        <v>0.120184502729984</v>
+        <v>0.141294487635603</v>
       </c>
       <c r="M6">
-        <v>0.120695127970274</v>
+        <v>0.142853584356183</v>
       </c>
       <c r="N6">
-        <v>0.121260889680635</v>
+        <v>0.455811688609813</v>
       </c>
       <c r="O6">
-        <v>0.956615184173751</v>
+        <v>0.499344557711719</v>
       </c>
       <c r="P6">
-        <v>0.964030465386915</v>
+        <v>0.971676386072804</v>
       </c>
       <c r="Q6">
-        <v>0.121278948679807</v>
+        <v>0.995471803488671</v>
       </c>
       <c r="R6">
-        <v>0.893051621924434</v>
+        <v>0.986108504854974</v>
       </c>
       <c r="S6">
-        <v>0.122143170847555</v>
+        <v>0.970168886770444</v>
       </c>
       <c r="T6">
-        <v>1.03934031907592</v>
+        <v>0.99644136169105</v>
       </c>
       <c r="U6">
-        <v>0.836463983979561</v>
+        <v>1.00633968996627</v>
       </c>
       <c r="V6">
-        <v>0.940952872055261</v>
+        <v>0.975219400645733</v>
       </c>
       <c r="W6">
-        <v>0.124434200904525</v>
+        <v>0.996888864461535</v>
       </c>
       <c r="X6">
-        <v>0.946486875293896</v>
+        <v>0.997016866550317</v>
       </c>
       <c r="Y6">
-        <v>0.962919095950379</v>
+        <v>0.997135250295328</v>
       </c>
       <c r="Z6">
-        <v>0.991129547178638</v>
+        <v>0.997247861810232</v>
       </c>
       <c r="AA6">
-        <v>0.126596298939521</v>
+        <v>0.997355956551493</v>
       </c>
       <c r="AB6">
-        <v>0.970645952469671</v>
+        <v>0.997459550055625</v>
       </c>
       <c r="AC6">
-        <v>0.984137716496389</v>
+        <v>0.9975587325208</v>
       </c>
       <c r="AD6">
-        <v>0.472504980317946</v>
+        <v>0.685620473533477</v>
       </c>
     </row>
   </sheetData>
